--- a/client/src/Excel/Data/Countries/ae.xlsx
+++ b/client/src/Excel/Data/Countries/ae.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D8791-D95B-415F-B791-1C35C63BB915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F3FBC-C497-42F7-B777-61D2174E760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1315,31 +1315,31 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08203125" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.58203125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.08203125" customWidth="1"/>
-    <col min="14" max="14" width="14.4140625" customWidth="1"/>
-    <col min="15" max="15" width="31.08203125" customWidth="1"/>
-    <col min="16" max="16" width="20.58203125" customWidth="1"/>
-    <col min="19" max="19" width="43.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84765625" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" customWidth="1"/>
+    <col min="10" max="10" width="20.6484375" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="17.34765625" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" customWidth="1"/>
+    <col min="14" max="14" width="14.3984375" customWidth="1"/>
+    <col min="15" max="15" width="31.09765625" customWidth="1"/>
+    <col min="16" max="16" width="20.59765625" customWidth="1"/>
+    <col min="19" max="19" width="43.59765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>234</v>
       </c>
       <c r="D2" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2" s="2">
         <v>2025</v>
@@ -1463,7 +1463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>234</v>
       </c>
       <c r="D3" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3" s="2">
         <v>2025</v>
@@ -1525,7 +1525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>231</v>
       </c>
       <c r="D4" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4" s="2">
         <v>2025</v>
@@ -1587,7 +1587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>232</v>
       </c>
       <c r="D5" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5" s="2">
         <v>2025</v>
@@ -1649,7 +1649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>226</v>
       </c>
       <c r="D6" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6" s="2">
         <v>2025</v>
@@ -1711,7 +1711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>230</v>
       </c>
       <c r="D7" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7" s="2">
         <v>2025</v>
@@ -1773,7 +1773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8" s="2">
         <v>2025</v>
@@ -1835,7 +1835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>227</v>
       </c>
       <c r="D9" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9" s="2">
         <v>2025</v>
@@ -1897,7 +1897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>228</v>
       </c>
       <c r="D10" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10" s="2">
         <v>2025</v>
@@ -1959,7 +1959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>229</v>
       </c>
       <c r="D11" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="2">
         <v>2025</v>
@@ -2021,7 +2021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="2">
         <v>2025</v>
@@ -2083,7 +2083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>134</v>
       </c>
       <c r="D13" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="2">
         <v>2024</v>
@@ -2145,7 +2145,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="2">
         <v>2024</v>
@@ -2207,7 +2207,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>156</v>
       </c>
       <c r="D15" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="2">
         <v>2024</v>
@@ -2269,7 +2269,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>235</v>
       </c>
       <c r="D16" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E16" s="2">
         <v>2024</v>
@@ -2331,7 +2331,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>179</v>
       </c>
       <c r="D17" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E17" s="2">
         <v>2024</v>
@@ -2393,7 +2393,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>190</v>
       </c>
       <c r="D18" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E18" s="2">
         <v>2024</v>
@@ -2455,7 +2455,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>236</v>
       </c>
       <c r="D19" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E19" s="2">
         <v>2025</v>
